--- a/Shiny/Dati/Reazione_catalizzatore_2^3.xlsx
+++ b/Shiny/Dati/Reazione_catalizzatore_2^3.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6F462D-17E5-4635-8FE5-ADDC5AC4FBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D8008E-4E07-4479-B5F1-8E9D5BF25E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{44E5C8DE-7A56-4F96-99F9-1E406A13FE3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{44E5C8DE-7A56-4F96-99F9-1E406A13FE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Reazione catalizzatore 2^3" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>x1</t>
   </si>
@@ -266,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -316,29 +317,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,8 +341,88 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9763AB19-E14C-FE0F-17EC-E2743B65C6C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="447675"/>
+          <a:ext cx="5648325" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>G.E.P.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> Box, J.S. Hunter, W.G. Hunter, Statistics for Experimenters, John Wiley &amp; Sons, 2nd edition, 2005. Cap.5, pag. 177 e seguenti.</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,13 +720,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD990EF5-3CB8-4249-B648-0435DB5D9A15}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,20 +736,20 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>-1</v>
       </c>
@@ -691,10 +759,10 @@
       <c r="C2" s="7">
         <v>-1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="20">
         <v>160</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="21">
         <v>20</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -704,7 +772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -714,10 +782,10 @@
       <c r="C3" s="7">
         <v>-1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>180</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3">
         <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -727,7 +795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>-1</v>
       </c>
@@ -737,10 +805,10 @@
       <c r="C4" s="7">
         <v>-1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>160</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4">
         <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -750,7 +818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -760,10 +828,10 @@
       <c r="C5" s="7">
         <v>-1</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>180</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5">
         <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -773,7 +841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>-1</v>
       </c>
@@ -783,10 +851,10 @@
       <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="17">
         <v>160</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -796,7 +864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -806,10 +874,10 @@
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>180</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -819,7 +887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>-1</v>
       </c>
@@ -829,10 +897,10 @@
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>160</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8">
         <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -842,7 +910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -852,10 +920,10 @@
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>180</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>40</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -865,16 +933,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="3"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>0</v>
       </c>
@@ -884,10 +952,10 @@
       <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>170</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11">
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -897,7 +965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -907,10 +975,10 @@
       <c r="C12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>170</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12">
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -920,7 +988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -930,10 +998,10 @@
       <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>170</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13">
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -943,7 +1011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0</v>
       </c>
@@ -953,10 +1021,10 @@
       <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <v>170</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>30</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -969,4 +1037,328 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9174529-E538-4B18-A62A-4ACAB834D199}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>160</v>
+      </c>
+      <c r="E2" s="21">
+        <v>20</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>180</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>160</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>180</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>160</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>180</v>
+      </c>
+      <c r="E9" s="19">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>170</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>170</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>170</v>
+      </c>
+      <c r="E14" s="19">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="12">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>